--- a/biology/Zoologie/Aspronema_dorsivittatum/Aspronema_dorsivittatum.xlsx
+++ b/biology/Zoologie/Aspronema_dorsivittatum/Aspronema_dorsivittatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspronema dorsivittatum est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspronema dorsivittatum est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Uruguay ;
 au Paraguay ;
 dans le nord de l'Argentine ;
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un saurien vivipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un saurien vivipare.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1862 : Catalogues of the Reptiles Obtained during the Explorations of the Parana, Paraguay, Vermejo and Uraguay Rivers, by Capt. Thos. J. Page, U. S. N.; And of Those Procured by Lieut. N. Michler, U. S. Top. Eng., Commander of the Expedition Conducting the Survey of the Atrato River. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 14, p. 346-359+594 (texte intégral).</t>
         </is>
